--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,339 +467,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.399999976158142</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.529999971389771</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.450000047683716</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.429999947547913</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.450000047683716</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.350000023841858</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.399999976158142</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>45621</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.360000014305115</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>45628</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.360000014305115</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>45635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.360000014305115</v>
+      </c>
       <c r="E8" t="n">
-        <v>1.470000028610229</v>
+        <v>1.350000023841858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.360000014305115</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.470000028610229</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="E9" t="n">
-        <v>1.5</v>
+        <v>1.360000014305115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.360000014305115</v>
+      </c>
       <c r="C10" t="n">
-        <v>1.470000028610229</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="E10" t="n">
-        <v>1.480000019073486</v>
+        <v>1.389999985694885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.470000028610229</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="C11" t="n">
-        <v>1.5</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="D11" t="n">
-        <v>1.480000019073486</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5</v>
+        <v>1.370000004768372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="C12" t="n">
-        <v>1.480000019073486</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="D12" t="n">
-        <v>1.5</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="E12" t="n">
-        <v>1.529999971389771</v>
+        <v>1.330000042915344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.480000019073486</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="C13" t="n">
-        <v>1.5</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="D13" t="n">
-        <v>1.529999971389771</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.450000047683716</v>
-      </c>
+        <v>1.330000042915344</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.5</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="C14" t="n">
-        <v>1.529999971389771</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.450000047683716</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.429999947547913</v>
-      </c>
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.529999971389771</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.450000047683716</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.429999947547913</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.450000047683716</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.350000023841858</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.399999976158142</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.360000014305115</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.360000014305115</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.350000023841858</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.360000014305115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.389999985694885</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -812,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,338 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.441139101982117</v>
+        <v>1.445420026779175</v>
       </c>
       <c r="C2" t="n">
-        <v>1.460275888442993</v>
+        <v>1.401662707328796</v>
       </c>
       <c r="D2" t="n">
-        <v>1.406440138816833</v>
+        <v>1.381614804267883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.440543413162231</v>
+        <v>1.522606492042542</v>
       </c>
       <c r="C3" t="n">
-        <v>1.456906676292419</v>
+        <v>1.458879470825195</v>
       </c>
       <c r="D3" t="n">
-        <v>1.415113210678101</v>
+        <v>1.395562291145325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.470611572265625</v>
+        <v>1.446163177490234</v>
       </c>
       <c r="C4" t="n">
-        <v>1.464611053466797</v>
+        <v>1.409183025360107</v>
       </c>
       <c r="D4" t="n">
-        <v>1.505048990249634</v>
+        <v>1.396899223327637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.438421010971069</v>
+        <v>1.430861115455627</v>
       </c>
       <c r="C5" t="n">
-        <v>1.489678740501404</v>
+        <v>1.394333362579346</v>
       </c>
       <c r="D5" t="n">
-        <v>1.508771419525146</v>
+        <v>1.428233504295349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.467296123504639</v>
+        <v>1.427762866020203</v>
       </c>
       <c r="C6" t="n">
-        <v>1.489418506622314</v>
+        <v>1.371343851089478</v>
       </c>
       <c r="D6" t="n">
-        <v>1.508869171142578</v>
+        <v>1.398649573326111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.507748007774353</v>
+        <v>1.420752644538879</v>
       </c>
       <c r="C7" t="n">
-        <v>1.502212882041931</v>
+        <v>1.370129346847534</v>
       </c>
       <c r="D7" t="n">
-        <v>1.526100039482117</v>
+        <v>1.397770881652832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.443703293800354</v>
+        <v>1.420772552490234</v>
       </c>
       <c r="C8" t="n">
-        <v>1.489802360534668</v>
+        <v>1.391551971435547</v>
       </c>
       <c r="D8" t="n">
-        <v>1.529250741004944</v>
+        <v>1.413833260536194</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.535037875175476</v>
+        <v>1.421674847602844</v>
       </c>
       <c r="C9" t="n">
-        <v>1.502484679222107</v>
+        <v>1.388792037963867</v>
       </c>
       <c r="D9" t="n">
-        <v>1.530772566795349</v>
+        <v>1.396769165992737</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.550536394119263</v>
+        <v>1.462257742881775</v>
       </c>
       <c r="C10" t="n">
-        <v>1.477227330207825</v>
+        <v>1.400675177574158</v>
       </c>
       <c r="D10" t="n">
-        <v>1.546749830245972</v>
+        <v>1.383177399635315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.535039305686951</v>
+        <v>1.439248085021973</v>
       </c>
       <c r="C11" t="n">
-        <v>1.465810179710388</v>
+        <v>1.399804830551147</v>
       </c>
       <c r="D11" t="n">
-        <v>1.527681231498718</v>
+        <v>1.382292509078979</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.517349720001221</v>
+        <v>1.425076723098755</v>
       </c>
       <c r="C12" t="n">
-        <v>1.468388319015503</v>
+        <v>1.372325539588928</v>
       </c>
       <c r="D12" t="n">
-        <v>1.529979109764099</v>
+        <v>1.395721197128296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.492838740348816</v>
+        <v>1.425986886024475</v>
       </c>
       <c r="C13" t="n">
-        <v>1.445753455162048</v>
+        <v>1.372278094291687</v>
       </c>
       <c r="D13" t="n">
-        <v>1.485059499740601</v>
+        <v>1.395644187927246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.504555463790894</v>
+        <v>1.421637415885925</v>
       </c>
       <c r="C14" t="n">
-        <v>1.457658529281616</v>
+        <v>1.365383386611938</v>
       </c>
       <c r="D14" t="n">
-        <v>1.449022054672241</v>
+        <v>1.394178509712219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.501248359680176</v>
+        <v>1.42286217212677</v>
       </c>
       <c r="C15" t="n">
-        <v>1.474350690841675</v>
+        <v>1.363213539123535</v>
       </c>
       <c r="D15" t="n">
-        <v>1.449934363365173</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.387553691864014</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.422771334648132</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.414938449859619</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.371777892112732</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.38264274597168</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.405966639518738</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.361546397209167</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.390357494354248</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.406718254089355</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.399533867835999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.403130054473877</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.409000396728516</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.404212117195129</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.396343946456909</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.402698636054993</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.37701153755188</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.401253461837769</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.389157891273499</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.396039128303528</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.398216605186462</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.397902131080627</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.363340497016907</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.395398736000061</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.389435648918152</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.373958945274353</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.391764879226685</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.397732138633728</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.362219333648682</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.391549825668335</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.397780776023865</v>
+        <v>1.395130276679993</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,212 +484,373 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.529999971389771</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.450000047683716</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.429999947547913</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.450000047683716</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.350000023841858</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.399999976158142</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.429999947547913</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.360000014305115</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.360000014305115</v>
-      </c>
+        <v>45537</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.350000023841858</v>
-      </c>
+        <v>45544</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.350000023841858</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1.360000014305115</v>
+        <v>1.470000028610229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.360000014305115</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.350000023841858</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.360000014305115</v>
+        <v>1.470000028610229</v>
       </c>
       <c r="E10" t="n">
-        <v>1.389999985694885</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.350000023841858</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.360000014305115</v>
+        <v>1.470000028610229</v>
       </c>
       <c r="D11" t="n">
-        <v>1.389999985694885</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1.370000004768372</v>
+        <v>1.480000019073486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.360000014305115</v>
+        <v>1.470000028610229</v>
       </c>
       <c r="C12" t="n">
-        <v>1.389999985694885</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1.370000004768372</v>
+        <v>1.480000019073486</v>
       </c>
       <c r="E12" t="n">
-        <v>1.330000042915344</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.389999985694885</v>
+        <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.370000004768372</v>
+        <v>1.480000019073486</v>
       </c>
       <c r="D13" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.529999971389771</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.370000004768372</v>
+        <v>1.480000019073486</v>
       </c>
       <c r="C14" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.529999971389771</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.450000047683716</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.529999971389771</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.450000047683716</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.429999947547913</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.529999971389771</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.450000047683716</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.429999947547913</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.450000047683716</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.350000023841858</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.399999976158142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.429999947547913</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.360000014305115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.360000014305115</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.350000023841858</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.360000014305115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.389999985694885</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.370000004768372</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.330000042915344</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.370000004768372</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>1.330000042915344</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +898,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.445420026779175</v>
+        <v>1.444234728813171</v>
       </c>
       <c r="C2" t="n">
-        <v>1.401662707328796</v>
+        <v>1.376063704490662</v>
       </c>
       <c r="D2" t="n">
-        <v>1.381614804267883</v>
+        <v>1.366998672485352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.522606492042542</v>
+        <v>1.382987856864929</v>
       </c>
       <c r="C3" t="n">
-        <v>1.458879470825195</v>
+        <v>1.496930360794067</v>
       </c>
       <c r="D3" t="n">
-        <v>1.395562291145325</v>
+        <v>1.397181868553162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.446163177490234</v>
+        <v>1.382987856864929</v>
       </c>
       <c r="C4" t="n">
-        <v>1.409183025360107</v>
+        <v>1.491043329238892</v>
       </c>
       <c r="D4" t="n">
-        <v>1.396899223327637</v>
+        <v>1.397483944892883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.430861115455627</v>
+        <v>1.473839521408081</v>
       </c>
       <c r="C5" t="n">
-        <v>1.394333362579346</v>
+        <v>1.491043329238892</v>
       </c>
       <c r="D5" t="n">
-        <v>1.428233504295349</v>
+        <v>1.500118494033813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.427762866020203</v>
+        <v>1.408788084983826</v>
       </c>
       <c r="C6" t="n">
-        <v>1.371343851089478</v>
+        <v>1.491650462150574</v>
       </c>
       <c r="D6" t="n">
-        <v>1.398649573326111</v>
+        <v>1.507319927215576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.420752644538879</v>
+        <v>1.470137238502502</v>
       </c>
       <c r="C7" t="n">
-        <v>1.370129346847534</v>
+        <v>1.496164560317993</v>
       </c>
       <c r="D7" t="n">
-        <v>1.397770881652832</v>
+        <v>1.526430368423462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.420772552490234</v>
+        <v>1.51139235496521</v>
       </c>
       <c r="C8" t="n">
-        <v>1.391551971435547</v>
+        <v>1.49182140827179</v>
       </c>
       <c r="D8" t="n">
-        <v>1.413833260536194</v>
+        <v>1.505523800849915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.421674847602844</v>
+        <v>1.484853386878967</v>
       </c>
       <c r="C9" t="n">
-        <v>1.388792037963867</v>
+        <v>1.491690397262573</v>
       </c>
       <c r="D9" t="n">
-        <v>1.396769165992737</v>
+        <v>1.546292304992676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.462257742881775</v>
+        <v>1.562132596969604</v>
       </c>
       <c r="C10" t="n">
-        <v>1.400675177574158</v>
+        <v>1.446553230285645</v>
       </c>
       <c r="D10" t="n">
-        <v>1.383177399635315</v>
+        <v>1.578096270561218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.439248085021973</v>
+        <v>1.575124382972717</v>
       </c>
       <c r="C11" t="n">
-        <v>1.399804830551147</v>
+        <v>1.447150111198425</v>
       </c>
       <c r="D11" t="n">
-        <v>1.382292509078979</v>
+        <v>1.579915523529053</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.425076723098755</v>
+        <v>1.564475059509277</v>
       </c>
       <c r="C12" t="n">
-        <v>1.372325539588928</v>
+        <v>1.489130973815918</v>
       </c>
       <c r="D12" t="n">
-        <v>1.395721197128296</v>
+        <v>1.538209438323975</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.425986886024475</v>
+        <v>1.519178867340088</v>
       </c>
       <c r="C13" t="n">
-        <v>1.372278094291687</v>
+        <v>1.477952837944031</v>
       </c>
       <c r="D13" t="n">
-        <v>1.395644187927246</v>
+        <v>1.531354784965515</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.421637415885925</v>
+        <v>1.50319766998291</v>
       </c>
       <c r="C14" t="n">
-        <v>1.365383386611938</v>
+        <v>1.470570087432861</v>
       </c>
       <c r="D14" t="n">
-        <v>1.394178509712219</v>
+        <v>1.506551146507263</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.505146265029907</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.491361737251282</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.433407425880432</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.426177501678467</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.479069590568542</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.431510210037231</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.380931854248047</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.417562961578369</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.408695340156555</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.355037331581116</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.385435938835144</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.399390935897827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.356241941452026</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.379183173179626</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.380559682846069</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.405743718147278</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.382931232452393</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.373761415481567</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.406017184257507</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.382549166679382</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.402007102966309</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.402549266815186</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.375185012817383</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.367022752761841</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.431591391563416</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.381976723670959</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.363202452659607</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.377150774002075</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.377118229866028</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.356140375137329</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.405453085899353</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.38136875629425</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.381039619445801</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.404826402664185</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.38116180896759</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.378601551055908</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.403539657592773</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.371764898300171</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.381396293640137</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.42286217212677</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.363213539123535</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.395130276679993</v>
+      <c r="B28" t="n">
+        <v>1.370824217796326</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.379446268081665</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.398234844207764</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 201/270G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 201/270G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 201/270G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 201/270G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 201/270G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 201/270G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.360000014305115</v>
       </c>
       <c r="C2" t="n">
-        <v>1.399999976158142</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,64 +487,104 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.470000028610229</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -552,12 +592,14 @@
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.470000028610229</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -566,13 +608,13 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.470000028610229</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1.480000019073486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -583,13 +625,13 @@
         <v>1.470000028610229</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1.480000019073486</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -600,13 +642,13 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.480000019073486</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1.529999971389771</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +659,13 @@
         <v>1.480000019073486</v>
       </c>
       <c r="C14" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1.529999971389771</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1.450000047683716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -634,13 +676,13 @@
         <v>1.5</v>
       </c>
       <c r="C15" t="n">
-        <v>1.529999971389771</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1.450000047683716</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.429999947547913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +693,13 @@
         <v>1.529999971389771</v>
       </c>
       <c r="C16" t="n">
-        <v>1.450000047683716</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.429999947547913</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1.429999947547913</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -668,13 +710,13 @@
         <v>1.450000047683716</v>
       </c>
       <c r="C17" t="n">
-        <v>1.429999947547913</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.429999947547913</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1.350000023841858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -685,13 +727,13 @@
         <v>1.429999947547913</v>
       </c>
       <c r="C18" t="n">
-        <v>1.429999947547913</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.350000023841858</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.399999976158142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +744,13 @@
         <v>1.429999947547913</v>
       </c>
       <c r="C19" t="n">
-        <v>1.350000023841858</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.399999976158142</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1.360000014305115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +761,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C20" t="n">
-        <v>1.399999976158142</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>1.360000014305115</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +778,13 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C21" t="n">
-        <v>1.360000014305115</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -753,13 +795,13 @@
         <v>1.360000014305115</v>
       </c>
       <c r="C22" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -770,13 +812,13 @@
         <v>1.360000014305115</v>
       </c>
       <c r="C23" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -787,13 +829,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C24" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -804,13 +846,13 @@
         <v>1.360000014305115</v>
       </c>
       <c r="C25" t="n">
-        <v>1.389999985694885</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.330000042915344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +863,14 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C26" t="n">
-        <v>1.370000004768372</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -836,10 +880,14 @@
         <v>1.370000004768372</v>
       </c>
       <c r="C27" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -848,9 +896,15 @@
       <c r="B28" t="n">
         <v>1.330000042915344</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,13 +952,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.444234728813171</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.376063704490662</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.366998672485352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +966,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.382987856864929</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.496930360794067</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.397181868553162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +980,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.382987856864929</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.491043329238892</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.397483944892883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +994,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.473839521408081</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.491043329238892</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.500118494033813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1008,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.408788084983826</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.491650462150574</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.507319927215576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1022,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.470137238502502</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.496164560317993</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.526430368423462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1036,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.51139235496521</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.49182140827179</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.505523800849915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1050,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.484853386878967</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.491690397262573</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.546292304992676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1064,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.562132596969604</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.446553230285645</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.578096270561218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1078,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.575124382972717</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.447150111198425</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.579915523529053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1092,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.564475059509277</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.489130973815918</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.538209438323975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1106,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.519178867340088</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.477952837944031</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.531354784965515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1120,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.50319766998291</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.470570087432861</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.506551146507263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1080,13 +1134,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.505146265029907</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.491361737251282</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.433407425880432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1148,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.426177501678467</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.479069590568542</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.431510210037231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1162,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.380931854248047</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.417562961578369</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1.408695340156555</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1176,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.355037331581116</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.385435938835144</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.399390935897827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1190,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.356241941452026</v>
+        <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>1.379183173179626</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.380559682846069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1204,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.405743718147278</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.382931232452393</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.373761415481567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1218,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.406017184257507</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.382549166679382</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.402007102966309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1232,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.402549266815186</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.375185012817383</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.367022752761841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1192,13 +1246,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.431591391563416</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.381976723670959</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.363202452659607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1260,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.377150774002075</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.377118229866028</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.356140375137329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1274,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.405453085899353</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.38136875629425</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.381039619445801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1234,13 +1288,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.404826402664185</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.38116180896759</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.378601551055908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1248,13 +1302,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.403539657592773</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.371764898300171</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.381396293640137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1262,13 +1316,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.370824217796326</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.379446268081665</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.398234844207764</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
